--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3203352.6435226</v>
+        <v>3201146.55011616</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8570187.262769789</v>
+        <v>8570187.262769787</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>258.2312197810635</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.0301000117425</v>
+        <v>225.7197075004277</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.4414032841481</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208645</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866715</v>
+        <v>69.92680236866705</v>
       </c>
       <c r="S2" t="n">
         <v>180.0198424776875</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930305</v>
+        <v>217.5248788930304</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.33977972706708</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>94.26179614982394</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6591799828218</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015522</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.035360425222</v>
+        <v>159.0353604252219</v>
       </c>
       <c r="T3" t="n">
         <v>197.4201388450818</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4201179865476</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>117.6800649483545</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.625388236511</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>199.620149978855</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>267.0013598756349</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>273.0065037122683</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>55.71969997626057</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>48.97699675700473</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>342.4347023020266</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>169.6822018002577</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586863</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.90187484148926</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534536</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.576929772928</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396203</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>113.5103646250785</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.300664570240161e-13</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004746</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.211838205613</v>
       </c>
       <c r="V13" t="n">
-        <v>235.9955072668618</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>1.300664570240161e-13</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534536</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292608</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396203</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589021</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.2480341124463</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143209</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004747</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T16" t="n">
-        <v>80.50796942908597</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.211838205613</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>1.300664570240161e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534536</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292589</v>
+        <v>41.57692977292609</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881778</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396192</v>
+        <v>203.9179701396203</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589019</v>
+        <v>250.9951719589021</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.300664570240161e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590284</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004747</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>286.211838205613</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>94.69859409301495</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>199.6221996898808</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534536</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292609</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396218</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589021</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784685</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>134.35054834472</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>165.6493770791449</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>286.211838205613</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004747</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491532</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056128</v>
+        <v>286.211838205613</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>270.3808622796252</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.225757137646</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>90.08177214021011</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2846,7 +2846,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>27.19292662790647</v>
+        <v>177.7766012698051</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>113.5103646250813</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>28.73745965623326</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774346</v>
       </c>
       <c r="C35" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849616</v>
       </c>
       <c r="D35" t="n">
-        <v>319.1876253346372</v>
+        <v>319.187625334637</v>
       </c>
       <c r="E35" t="n">
-        <v>346.4349537862161</v>
+        <v>346.4349537862158</v>
       </c>
       <c r="F35" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556655</v>
       </c>
       <c r="G35" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674075</v>
       </c>
       <c r="H35" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012745</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880219</v>
+        <v>6.081513486880013</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550212991</v>
       </c>
       <c r="T35" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535742</v>
       </c>
       <c r="U35" t="n">
-        <v>215.4997556728563</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V35" t="n">
-        <v>292.2568421840892</v>
+        <v>292.256842184089</v>
       </c>
       <c r="W35" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313671</v>
       </c>
       <c r="X35" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924231</v>
       </c>
       <c r="Y35" t="n">
-        <v>350.7425223700079</v>
+        <v>350.7425223700076</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958916</v>
+        <v>144.3365638958913</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>131.7514048125819</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321666</v>
+        <v>113.1200567321664</v>
       </c>
       <c r="E37" t="n">
-        <v>78.92986640580894</v>
+        <v>56.43806022150586</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729823</v>
       </c>
       <c r="H37" t="n">
-        <v>109.2595986282751</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379236</v>
+        <v>60.85700412379215</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.4367363840016</v>
+        <v>53.43673638400138</v>
       </c>
       <c r="S37" t="n">
-        <v>154.2736090453962</v>
+        <v>154.2736090453959</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901235</v>
+        <v>184.0535329901232</v>
       </c>
       <c r="U37" t="n">
-        <v>250.7164219195672</v>
+        <v>250.7164219195669</v>
       </c>
       <c r="V37" t="n">
-        <v>216.6422270377823</v>
+        <v>216.642227037782</v>
       </c>
       <c r="W37" t="n">
-        <v>251.0275820505453</v>
+        <v>251.027582050545</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029912</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.0892370660491</v>
+        <v>183.0892370660488</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774346</v>
       </c>
       <c r="C38" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1876253346372</v>
+        <v>319.187625334637</v>
       </c>
       <c r="E38" t="n">
-        <v>346.4349537862161</v>
+        <v>346.4349537862158</v>
       </c>
       <c r="F38" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556655</v>
       </c>
       <c r="G38" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674075</v>
       </c>
       <c r="H38" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012745</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880226</v>
+        <v>6.081513486880027</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213011</v>
+        <v>73.69234550212991</v>
       </c>
       <c r="T38" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535742</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728563</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V38" t="n">
-        <v>292.2568421840895</v>
+        <v>292.256842184089</v>
       </c>
       <c r="W38" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313671</v>
       </c>
       <c r="X38" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924231</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700079</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.3365638958916</v>
+        <v>144.3365638958914</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>131.7514048125819</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>113.1200567321664</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605234</v>
+        <v>77.70885356621324</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368855</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>101.7161370135487</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109.2595986282751</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379236</v>
+        <v>60.85700412379217</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.4367363840016</v>
+        <v>53.43673638400141</v>
       </c>
       <c r="S40" t="n">
-        <v>154.2736090453962</v>
+        <v>154.273609045396</v>
       </c>
       <c r="T40" t="n">
-        <v>184.0535329901235</v>
+        <v>184.0535329901233</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7164219195672</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V40" t="n">
-        <v>216.6422270377823</v>
+        <v>216.6422270377821</v>
       </c>
       <c r="W40" t="n">
-        <v>251.0275820505453</v>
+        <v>251.0275820505451</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029912</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.0892370660491</v>
+        <v>183.0892370660489</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774346</v>
       </c>
       <c r="C41" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D41" t="n">
-        <v>319.1876253346372</v>
+        <v>319.187625334637</v>
       </c>
       <c r="E41" t="n">
-        <v>346.4349537862161</v>
+        <v>346.4349537862158</v>
       </c>
       <c r="F41" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556655</v>
       </c>
       <c r="G41" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674075</v>
       </c>
       <c r="H41" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012745</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880219</v>
+        <v>6.081513486880027</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213011</v>
+        <v>73.69234550212991</v>
       </c>
       <c r="T41" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535742</v>
       </c>
       <c r="U41" t="n">
-        <v>215.4997556728563</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V41" t="n">
-        <v>292.2568421840892</v>
+        <v>292.256842184089</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313671</v>
       </c>
       <c r="X41" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924231</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700079</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.3365638958916</v>
+        <v>144.3365638958914</v>
       </c>
       <c r="C43" t="n">
-        <v>131.7514048125821</v>
+        <v>97.85567890966112</v>
       </c>
       <c r="D43" t="n">
-        <v>80.90327856149038</v>
+        <v>113.1200567321664</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>110.9385463605232</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9256317368855</v>
+        <v>109.9256317368853</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>109.2595986282751</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379236</v>
+        <v>60.85700412379217</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.4367363840016</v>
+        <v>53.43673638400141</v>
       </c>
       <c r="S43" t="n">
-        <v>154.2736090453962</v>
+        <v>154.273609045396</v>
       </c>
       <c r="T43" t="n">
-        <v>184.0535329901235</v>
+        <v>184.0535329901233</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7164219195672</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V43" t="n">
-        <v>216.6422270377823</v>
+        <v>216.6422270377821</v>
       </c>
       <c r="W43" t="n">
-        <v>251.0275820505453</v>
+        <v>251.0275820505451</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029912</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.0892370660491</v>
+        <v>183.0892370660489</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774346</v>
       </c>
       <c r="C44" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D44" t="n">
-        <v>319.1876253346372</v>
+        <v>319.187625334637</v>
       </c>
       <c r="E44" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862158</v>
       </c>
       <c r="F44" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556655</v>
       </c>
       <c r="G44" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674075</v>
       </c>
       <c r="H44" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012745</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880183</v>
+        <v>6.081513486880027</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550213007</v>
+        <v>73.69234550212991</v>
       </c>
       <c r="T44" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535742</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V44" t="n">
-        <v>292.2568421840891</v>
+        <v>292.256842184089</v>
       </c>
       <c r="W44" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313671</v>
       </c>
       <c r="X44" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924231</v>
       </c>
       <c r="Y44" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958914</v>
       </c>
       <c r="C46" t="n">
-        <v>131.7514048125821</v>
+        <v>131.7514048125819</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321666</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368855</v>
+        <v>60.29851832539725</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729824</v>
+        <v>130.5303919729823</v>
       </c>
       <c r="H46" t="n">
-        <v>80.48441923800958</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.85700412379217</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400156</v>
+        <v>53.43673638400141</v>
       </c>
       <c r="S46" t="n">
-        <v>154.2736090453961</v>
+        <v>154.273609045396</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>184.0535329901233</v>
       </c>
       <c r="U46" t="n">
-        <v>250.7164219195671</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V46" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377821</v>
       </c>
       <c r="W46" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505451</v>
       </c>
       <c r="X46" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029912</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660489</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>493.2576515776243</v>
+        <v>612.9417513462156</v>
       </c>
       <c r="C2" t="n">
-        <v>232.418035637156</v>
+        <v>612.9417513462156</v>
       </c>
       <c r="D2" t="n">
-        <v>232.418035637156</v>
+        <v>612.9417513462156</v>
       </c>
       <c r="E2" t="n">
-        <v>232.418035637156</v>
+        <v>612.9417513462156</v>
       </c>
       <c r="F2" t="n">
-        <v>225.4725348879526</v>
+        <v>605.9962505970121</v>
       </c>
       <c r="G2" t="n">
-        <v>211.3007166942733</v>
+        <v>377.9965460511255</v>
       </c>
       <c r="H2" t="n">
-        <v>211.3007166942733</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="J2" t="n">
         <v>143.361340524478</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293492</v>
+        <v>406.6417666293495</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024621</v>
+        <v>785.5410436024627</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782768</v>
+        <v>1223.746040782769</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400859</v>
+        <v>1654.40965540086</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671741</v>
+        <v>2015.885456671743</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110673</v>
+        <v>2286.722307110675</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750812</v>
+        <v>2412.887742750814</v>
       </c>
       <c r="R2" t="n">
-        <v>2342.254609045087</v>
+        <v>2342.254609045089</v>
       </c>
       <c r="S2" t="n">
-        <v>2160.41638432015</v>
+        <v>2160.416384320152</v>
       </c>
       <c r="T2" t="n">
-        <v>1940.6942844282</v>
+        <v>1940.694284428202</v>
       </c>
       <c r="U2" t="n">
-        <v>1940.6942844282</v>
+        <v>1686.912625935712</v>
       </c>
       <c r="V2" t="n">
-        <v>1609.63139708463</v>
+        <v>1355.849738592141</v>
       </c>
       <c r="W2" t="n">
-        <v>1256.862741814516</v>
+        <v>1003.081083322027</v>
       </c>
       <c r="X2" t="n">
-        <v>883.396983553436</v>
+        <v>1003.081083322027</v>
       </c>
       <c r="Y2" t="n">
-        <v>493.2576515776243</v>
+        <v>612.9417513462156</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8055048397986</v>
+        <v>751.4367136075284</v>
       </c>
       <c r="C3" t="n">
-        <v>814.3524755586716</v>
+        <v>576.9836843264014</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4180658974203</v>
+        <v>428.0492746651502</v>
       </c>
       <c r="E3" t="n">
-        <v>506.1806108919648</v>
+        <v>332.8353391602775</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6460529188497</v>
+        <v>186.3007811871624</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6030265867035</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="H3" t="n">
-        <v>114.8765821596108</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="J3" t="n">
-        <v>111.2074192719581</v>
+        <v>111.2074192719582</v>
       </c>
       <c r="K3" t="n">
-        <v>149.6153884757253</v>
+        <v>345.4192653503517</v>
       </c>
       <c r="L3" t="n">
-        <v>525.9465153519682</v>
+        <v>721.7503922265948</v>
       </c>
       <c r="M3" t="n">
-        <v>1017.086411664339</v>
+        <v>1212.890288538966</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.932332987182</v>
+        <v>1732.73620986181</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.074112602206</v>
+        <v>1946.074112602208</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.443393642316</v>
+        <v>2257.443393642317</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750812</v>
+        <v>2412.887742750814</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841564</v>
+        <v>2412.887742750814</v>
       </c>
       <c r="S3" t="n">
-        <v>2193.780311634269</v>
+        <v>2252.245964543519</v>
       </c>
       <c r="T3" t="n">
-        <v>1994.36602997257</v>
+        <v>2052.83168288182</v>
       </c>
       <c r="U3" t="n">
-        <v>1766.187661648778</v>
+        <v>1824.653314558027</v>
       </c>
       <c r="V3" t="n">
-        <v>1531.035553417035</v>
+        <v>1589.501206326285</v>
       </c>
       <c r="W3" t="n">
-        <v>1276.798196688834</v>
+        <v>1335.263849598083</v>
       </c>
       <c r="X3" t="n">
-        <v>1068.946696483301</v>
+        <v>1127.41234939255</v>
       </c>
       <c r="Y3" t="n">
-        <v>1068.946696483301</v>
+        <v>919.6520506275965</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>631.0407786978471</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="C4" t="n">
-        <v>631.0407786978471</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="D4" t="n">
-        <v>631.0407786978471</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="E4" t="n">
-        <v>483.127685115454</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="F4" t="n">
-        <v>336.2377376175436</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="G4" t="n">
-        <v>167.1265073281016</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461004</v>
+        <v>91.87143294461015</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384342</v>
+        <v>203.2083598384344</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534284</v>
+        <v>330.9866617534287</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692847</v>
+        <v>461.1612976692852</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984519</v>
+        <v>565.3823477984524</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978471</v>
+        <v>631.0407786978477</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978471</v>
+        <v>631.0407786978477</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978471</v>
+        <v>477.8838208831902</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978471</v>
+        <v>477.8838208831902</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978471</v>
+        <v>276.2473057530336</v>
       </c>
       <c r="U4" t="n">
-        <v>631.0407786978471</v>
+        <v>276.2473057530336</v>
       </c>
       <c r="V4" t="n">
-        <v>631.0407786978471</v>
+        <v>276.2473057530336</v>
       </c>
       <c r="W4" t="n">
-        <v>631.0407786978471</v>
+        <v>276.2473057530336</v>
       </c>
       <c r="X4" t="n">
-        <v>631.0407786978471</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="Y4" t="n">
-        <v>631.0407786978471</v>
+        <v>48.25775485501627</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1117.513150920515</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>748.5506339801032</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>748.5506339801032</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>748.5506339801032</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>741.6051332308997</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>323.6413251290866</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>1596.219838194355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1117.513150920515</v>
+        <v>1206.080506218543</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4680,7 +4680,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1150.836072463478</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C8" t="n">
-        <v>1150.836072463478</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>792.5703738567279</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>406.7821212584836</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>399.8366205092802</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>2130.940772869852</v>
       </c>
       <c r="W8" t="n">
-        <v>1914.44116270037</v>
+        <v>1778.172117599737</v>
       </c>
       <c r="X8" t="n">
-        <v>1540.97540443929</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="Y8" t="n">
-        <v>1150.836072463478</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,16 +4884,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690179</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749767</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143016</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544772</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551643</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001607</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089278</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K11" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846825</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.45789851875</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577532</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906987</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353933</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862921</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419724</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946819</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.78330633104</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604877</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261306</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991192</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730112</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089895</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468569</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5151,7 +5151,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839441</v>
+        <v>210.2179684131203</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839441</v>
+        <v>210.2179684131203</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839461</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384226</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783392</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413777</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433602</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>391.8664332433602</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690178</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143016</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544772</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551636</v>
       </c>
       <c r="G14" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427195</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420606</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750061</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107239</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862922</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419724</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946819</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331041</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604877</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261306</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991192</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730112</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.8161967543</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5388,7 +5388,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>411.3871648742116</v>
+        <v>681.2836032803216</v>
       </c>
       <c r="C16" t="n">
-        <v>242.4509819463048</v>
+        <v>512.3474203524145</v>
       </c>
       <c r="D16" t="n">
-        <v>242.4509819463048</v>
+        <v>362.2307809400786</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>241.7782212305368</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305368</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305368</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927021</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689056</v>
       </c>
       <c r="T16" t="n">
-        <v>1875.022284863203</v>
+        <v>1453.060509258582</v>
       </c>
       <c r="U16" t="n">
-        <v>1585.919417988846</v>
+        <v>1163.957642384226</v>
       </c>
       <c r="V16" t="n">
-        <v>1331.234929782959</v>
+        <v>909.2731541783386</v>
       </c>
       <c r="W16" t="n">
-        <v>1041.817759745999</v>
+        <v>909.2731541783385</v>
       </c>
       <c r="X16" t="n">
-        <v>813.8282088479814</v>
+        <v>681.2836032803216</v>
       </c>
       <c r="Y16" t="n">
-        <v>593.0356297044514</v>
+        <v>681.2836032803216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,67 +5489,67 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>919.9473678912393</v>
       </c>
       <c r="L17" t="n">
-        <v>1732.058578925875</v>
+        <v>1784.466183544594</v>
       </c>
       <c r="M17" t="n">
-        <v>2265.5904835978</v>
+        <v>2317.998088216519</v>
       </c>
       <c r="N17" t="n">
-        <v>2812.369300656582</v>
+        <v>3297.750360443165</v>
       </c>
       <c r="O17" t="n">
-        <v>3692.333950986037</v>
+        <v>3800.722831322502</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679681</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188669</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419724</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W17" t="n">
         <v>3524.42128699119</v>
@@ -5558,7 +5558,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5625,7 +5625,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.2638710736754</v>
+        <v>411.176964656069</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>411.176964656069</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>411.1769646560689</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>263.2638710736757</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>263.2638710736757</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5689,34 +5689,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384226</v>
       </c>
       <c r="V19" t="n">
-        <v>1163.957642384227</v>
+        <v>909.273154178339</v>
       </c>
       <c r="W19" t="n">
-        <v>874.5404723472667</v>
+        <v>813.6180086298391</v>
       </c>
       <c r="X19" t="n">
-        <v>646.5509214492494</v>
+        <v>813.6180086298391</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.9123359039152</v>
+        <v>592.8254294863088</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.832524924161</v>
+        <v>799.5135445647381</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.86673817257</v>
+        <v>1664.032360218093</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844494</v>
+        <v>2642.582663047921</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903276</v>
+        <v>3189.361480106704</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3692.333950986041</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432986</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188669</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419724</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946819</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5862,7 +5862,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241.7782212305366</v>
+        <v>414.6138567886374</v>
       </c>
       <c r="C22" t="n">
-        <v>241.7782212305366</v>
+        <v>245.6776738607304</v>
       </c>
       <c r="D22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="E22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1699.190405751984</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1477.42379032151</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U22" t="n">
-        <v>1188.320923447154</v>
+        <v>1253.788099626698</v>
       </c>
       <c r="V22" t="n">
-        <v>933.6364352412669</v>
+        <v>999.1036114208113</v>
       </c>
       <c r="W22" t="n">
-        <v>644.2192652043065</v>
+        <v>999.1036114208113</v>
       </c>
       <c r="X22" t="n">
-        <v>644.2192652043065</v>
+        <v>771.1140605227938</v>
       </c>
       <c r="Y22" t="n">
-        <v>423.4266860607763</v>
+        <v>550.3214813792637</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
         <v>95.56103444839442</v>
@@ -6145,52 +6145,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927021</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689056</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.7880996267</v>
+        <v>1270.09328756303</v>
       </c>
       <c r="V25" t="n">
-        <v>999.103611420813</v>
+        <v>1015.408799357143</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201815</v>
+        <v>725.991629320182</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221641</v>
+        <v>498.0020784221645</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.209499278634</v>
+        <v>277.2094992786343</v>
       </c>
     </row>
     <row r="26">
@@ -6230,16 +6230,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6306,10 +6306,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>633.9069394924948</v>
+        <v>533.2127443498364</v>
       </c>
       <c r="C28" t="n">
-        <v>633.9069394924948</v>
+        <v>533.2127443498364</v>
       </c>
       <c r="D28" t="n">
-        <v>633.9069394924948</v>
+        <v>383.0961049375005</v>
       </c>
       <c r="E28" t="n">
-        <v>485.9938459101016</v>
+        <v>235.1830113551075</v>
       </c>
       <c r="F28" t="n">
-        <v>339.1038984121913</v>
+        <v>235.1830113551075</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442067</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927028</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1775.521319831716</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1553.754704401243</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1553.754704401243</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>1553.754704401243</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W28" t="n">
-        <v>1264.337534364282</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X28" t="n">
-        <v>1036.347983466265</v>
+        <v>935.6537883236062</v>
       </c>
       <c r="Y28" t="n">
-        <v>815.5554043227345</v>
+        <v>714.8612091800761</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6461,22 +6461,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>416.1091927888621</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844495</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6494,13 +6494,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>243.4741280307874</v>
+        <v>411.1769646560687</v>
       </c>
       <c r="C31" t="n">
-        <v>243.4741280307874</v>
+        <v>411.1769646560687</v>
       </c>
       <c r="D31" t="n">
-        <v>243.4741280307875</v>
+        <v>411.1769646560687</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736757</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6625,7 +6625,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6634,7 +6634,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1928.875863450252</v>
+        <v>1686.940684347277</v>
       </c>
       <c r="T31" t="n">
-        <v>1707.109248019779</v>
+        <v>1465.174068916803</v>
       </c>
       <c r="U31" t="n">
-        <v>1418.006381145422</v>
+        <v>1176.071202042446</v>
       </c>
       <c r="V31" t="n">
-        <v>1163.321892939535</v>
+        <v>921.3867138365594</v>
       </c>
       <c r="W31" t="n">
-        <v>873.9047229025746</v>
+        <v>631.9695437995988</v>
       </c>
       <c r="X31" t="n">
-        <v>645.9151720045572</v>
+        <v>631.9695437995988</v>
       </c>
       <c r="Y31" t="n">
-        <v>425.1225928610271</v>
+        <v>411.1769646560687</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>444.6760255082871</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1099.399357643587</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1963.918173296941</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2497.450077968866</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N32" t="n">
-        <v>3044.228895027648</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906985</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6783,7 +6783,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>210.2179684131228</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C34" t="n">
-        <v>210.2179684131228</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D34" t="n">
-        <v>210.2179684131228</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E34" t="n">
-        <v>210.2179684131228</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F34" t="n">
-        <v>210.2179684131229</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6886,22 +6886,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1645.79938766256</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384227</v>
+        <v>1356.696520788203</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783404</v>
+        <v>1102.012032582316</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413798</v>
+        <v>812.5948625453557</v>
       </c>
       <c r="X34" t="n">
-        <v>391.8664332433625</v>
+        <v>812.5948625453557</v>
       </c>
       <c r="Y34" t="n">
-        <v>391.8664332433625</v>
+        <v>591.8022834018255</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010018</v>
       </c>
       <c r="C35" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D35" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E35" t="n">
-        <v>1106.808364398085</v>
+        <v>1106.808364398084</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529678</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424556</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571341</v>
+        <v>90.72827659571313</v>
       </c>
       <c r="I35" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967271</v>
       </c>
       <c r="J35" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K35" t="n">
-        <v>899.0396659381977</v>
+        <v>760.806159960807</v>
       </c>
       <c r="L35" t="n">
-        <v>1350.073879186607</v>
+        <v>1625.324975614162</v>
       </c>
       <c r="M35" t="n">
-        <v>1883.605783858531</v>
+        <v>2158.856880286086</v>
       </c>
       <c r="N35" t="n">
-        <v>2430.384600917313</v>
+        <v>2705.635697344869</v>
       </c>
       <c r="O35" t="n">
-        <v>2933.35707179665</v>
+        <v>3208.608168224206</v>
       </c>
       <c r="P35" t="n">
-        <v>3646.712159243596</v>
+        <v>3921.963255671151</v>
       </c>
       <c r="Q35" t="n">
-        <v>4105.190361752584</v>
+        <v>4170.249617426834</v>
       </c>
       <c r="R35" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983636</v>
       </c>
       <c r="S35" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355221</v>
       </c>
       <c r="T35" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583935</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702263</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W35" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777559</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.29422536097</v>
       </c>
       <c r="Y35" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>959.6170717285981</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C36" t="n">
-        <v>785.1640424474712</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D36" t="n">
-        <v>636.22963278622</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E36" t="n">
-        <v>476.9921777807645</v>
+        <v>476.9921777807642</v>
       </c>
       <c r="F36" t="n">
-        <v>330.4576198076495</v>
+        <v>330.4576198076492</v>
       </c>
       <c r="G36" t="n">
-        <v>194.0945196402682</v>
+        <v>194.0945196402672</v>
       </c>
       <c r="H36" t="n">
-        <v>103.5926252781352</v>
+        <v>103.5926252781348</v>
       </c>
       <c r="I36" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967271</v>
       </c>
       <c r="J36" t="n">
-        <v>178.2626031702904</v>
+        <v>178.2626031702901</v>
       </c>
       <c r="K36" t="n">
-        <v>416.5268021506378</v>
+        <v>416.5268021506373</v>
       </c>
       <c r="L36" t="n">
-        <v>783.224962463303</v>
+        <v>783.2249624633026</v>
       </c>
       <c r="M36" t="n">
         <v>1230.501287685619</v>
@@ -7044,13 +7044,13 @@
         <v>2453.544519866826</v>
       </c>
       <c r="T36" t="n">
-        <v>2260.901519544682</v>
+        <v>2260.901519544681</v>
       </c>
       <c r="U36" t="n">
         <v>2032.833672679097</v>
       </c>
       <c r="V36" t="n">
-        <v>1797.681564447355</v>
+        <v>1797.681564447354</v>
       </c>
       <c r="W36" t="n">
         <v>1543.444207719153</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>582.2589880867693</v>
+        <v>582.2589880867723</v>
       </c>
       <c r="C37" t="n">
-        <v>582.2589880867693</v>
+        <v>449.1767610033563</v>
       </c>
       <c r="D37" t="n">
-        <v>467.9963045189241</v>
+        <v>334.9140774355114</v>
       </c>
       <c r="E37" t="n">
-        <v>388.2691667352788</v>
+        <v>277.9059357976267</v>
       </c>
       <c r="F37" t="n">
-        <v>388.2691667352788</v>
+        <v>277.9059357976267</v>
       </c>
       <c r="G37" t="n">
-        <v>256.4202859544883</v>
+        <v>146.0570550168365</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0570550168368</v>
+        <v>146.0570550168365</v>
       </c>
       <c r="I37" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967271</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497938</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218556</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935367</v>
+        <v>755.676333893537</v>
       </c>
       <c r="M37" t="n">
-        <v>1134.973841616271</v>
+        <v>1134.973841616272</v>
       </c>
       <c r="N37" t="n">
-        <v>1511.522680445321</v>
+        <v>1511.522680445322</v>
       </c>
       <c r="O37" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488921</v>
       </c>
       <c r="P37" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q37" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R37" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S37" t="n">
-        <v>2016.6830325948</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T37" t="n">
-        <v>1830.770373008816</v>
+        <v>1830.770373008818</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.521461978951</v>
+        <v>1577.521461978952</v>
       </c>
       <c r="V37" t="n">
-        <v>1358.690929617555</v>
+        <v>1358.690929617556</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.127715425084</v>
+        <v>1105.127715425087</v>
       </c>
       <c r="X37" t="n">
-        <v>912.9921203715578</v>
+        <v>912.9921203715601</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.0534970725183</v>
+        <v>728.0534970725212</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C38" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D38" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E38" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424556</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571342</v>
+        <v>90.72827659571315</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967273</v>
       </c>
       <c r="J38" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K38" t="n">
-        <v>1095.593445794351</v>
+        <v>607.2838383285447</v>
       </c>
       <c r="L38" t="n">
-        <v>1546.62765904276</v>
+        <v>1350.073879186604</v>
       </c>
       <c r="M38" t="n">
-        <v>2080.159563714684</v>
+        <v>1883.605783858528</v>
       </c>
       <c r="N38" t="n">
-        <v>2626.938380773467</v>
+        <v>2430.384600917311</v>
       </c>
       <c r="O38" t="n">
-        <v>3129.910851652804</v>
+        <v>2933.357071796648</v>
       </c>
       <c r="P38" t="n">
-        <v>3843.26593909975</v>
+        <v>3646.712159243593</v>
       </c>
       <c r="Q38" t="n">
-        <v>4105.190361752584</v>
+        <v>4105.190361752581</v>
       </c>
       <c r="R38" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983637</v>
       </c>
       <c r="S38" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355222</v>
       </c>
       <c r="T38" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583935</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702263</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.90602777756</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="39">
@@ -7242,13 +7242,13 @@
         <v>330.4576198076492</v>
       </c>
       <c r="G39" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402672</v>
       </c>
       <c r="H39" t="n">
         <v>103.5926252781348</v>
       </c>
       <c r="I39" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967273</v>
       </c>
       <c r="J39" t="n">
         <v>178.2626031702901</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.2589880867688</v>
+        <v>582.2589880867722</v>
       </c>
       <c r="C40" t="n">
-        <v>582.2589880867688</v>
+        <v>449.1767610033561</v>
       </c>
       <c r="D40" t="n">
-        <v>582.2589880867688</v>
+        <v>334.9140774355112</v>
       </c>
       <c r="E40" t="n">
-        <v>470.1998503488663</v>
+        <v>256.4202859544879</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1638586954466</v>
+        <v>256.4202859544879</v>
       </c>
       <c r="G40" t="n">
-        <v>256.4202859544883</v>
+        <v>256.4202859544879</v>
       </c>
       <c r="H40" t="n">
-        <v>146.0570550168368</v>
+        <v>146.0570550168365</v>
       </c>
       <c r="I40" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967273</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497938</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935367</v>
+        <v>755.676333893537</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
       </c>
       <c r="N40" t="n">
-        <v>1511.522680445321</v>
+        <v>1511.522680445322</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.992741488919</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q40" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R40" t="n">
-        <v>2172.514960923482</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S40" t="n">
-        <v>2016.683032594799</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T40" t="n">
-        <v>1830.770373008816</v>
+        <v>1830.770373008818</v>
       </c>
       <c r="U40" t="n">
-        <v>1577.52146197895</v>
+        <v>1577.521461978953</v>
       </c>
       <c r="V40" t="n">
-        <v>1358.690929617554</v>
+        <v>1358.690929617557</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.127715425084</v>
+        <v>1105.127715425087</v>
       </c>
       <c r="X40" t="n">
-        <v>912.9921203715573</v>
+        <v>912.9921203715603</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.0534970725179</v>
+        <v>728.0534970725211</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010018</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914097</v>
       </c>
       <c r="D41" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E41" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398084</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529686</v>
+        <v>731.6764154529678</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424557</v>
+        <v>352.4579211424551</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571341</v>
+        <v>90.72827659571315</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967273</v>
       </c>
       <c r="J41" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K41" t="n">
-        <v>774.6894873488977</v>
+        <v>607.2838383285447</v>
       </c>
       <c r="L41" t="n">
-        <v>1639.208303002252</v>
+        <v>1471.802653981899</v>
       </c>
       <c r="M41" t="n">
-        <v>2202.186504948299</v>
+        <v>2035.386166251484</v>
       </c>
       <c r="N41" t="n">
-        <v>2748.965322007081</v>
+        <v>2582.164983310266</v>
       </c>
       <c r="O41" t="n">
-        <v>3251.937792886418</v>
+        <v>3462.129633639721</v>
       </c>
       <c r="P41" t="n">
-        <v>3646.712159243596</v>
+        <v>3856.903999996899</v>
       </c>
       <c r="Q41" t="n">
-        <v>4105.190361752584</v>
+        <v>4105.190361752581</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983637</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355222</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583935</v>
       </c>
       <c r="U41" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702263</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777559</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360973</v>
+        <v>2817.29422536097</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="42">
@@ -7479,13 +7479,13 @@
         <v>330.4576198076492</v>
       </c>
       <c r="G42" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402672</v>
       </c>
       <c r="H42" t="n">
         <v>103.5926252781348</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967273</v>
       </c>
       <c r="J42" t="n">
         <v>178.2626031702901</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.2589880867693</v>
+        <v>582.258988086772</v>
       </c>
       <c r="C43" t="n">
-        <v>449.1767610033529</v>
+        <v>483.4148679760032</v>
       </c>
       <c r="D43" t="n">
-        <v>367.4562776079081</v>
+        <v>369.1521844081583</v>
       </c>
       <c r="E43" t="n">
-        <v>367.4562776079081</v>
+        <v>257.093046670256</v>
       </c>
       <c r="F43" t="n">
-        <v>256.4202859544883</v>
+        <v>146.0570550168365</v>
       </c>
       <c r="G43" t="n">
-        <v>256.4202859544883</v>
+        <v>146.0570550168365</v>
       </c>
       <c r="H43" t="n">
-        <v>146.0570550168368</v>
+        <v>146.0570550168365</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967273</v>
       </c>
       <c r="J43" t="n">
-        <v>164.8484282497939</v>
+        <v>164.8484282497938</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218556</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935367</v>
+        <v>755.6763338935372</v>
       </c>
       <c r="M43" t="n">
-        <v>1134.973841616271</v>
+        <v>1134.973841616272</v>
       </c>
       <c r="N43" t="n">
-        <v>1511.522680445321</v>
+        <v>1511.522680445322</v>
       </c>
       <c r="O43" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488921</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045766</v>
       </c>
       <c r="Q43" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321466</v>
       </c>
       <c r="R43" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923485</v>
       </c>
       <c r="S43" t="n">
-        <v>2016.6830325948</v>
+        <v>2016.683032594802</v>
       </c>
       <c r="T43" t="n">
-        <v>1830.770373008816</v>
+        <v>1830.770373008818</v>
       </c>
       <c r="U43" t="n">
-        <v>1577.521461978951</v>
+        <v>1577.521461978953</v>
       </c>
       <c r="V43" t="n">
-        <v>1358.690929617555</v>
+        <v>1358.690929617557</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.127715425084</v>
+        <v>1105.127715425087</v>
       </c>
       <c r="X43" t="n">
-        <v>912.9921203715577</v>
+        <v>912.99212037156</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.0534970725183</v>
+        <v>728.0534970725207</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010018</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914097</v>
       </c>
       <c r="D44" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E44" t="n">
-        <v>1106.808364398085</v>
+        <v>1106.808364398084</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529678</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424557</v>
+        <v>352.4579211424551</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571337</v>
+        <v>90.72827659571315</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967273</v>
       </c>
       <c r="J44" t="n">
         <v>273.4644646386982</v>
       </c>
       <c r="K44" t="n">
-        <v>607.2838383285448</v>
+        <v>607.2838383285447</v>
       </c>
       <c r="L44" t="n">
         <v>1058.318051576954</v>
@@ -7658,40 +7658,40 @@
         <v>2036.868354406782</v>
       </c>
       <c r="N44" t="n">
-        <v>3016.620626633429</v>
+        <v>2583.647171465564</v>
       </c>
       <c r="O44" t="n">
-        <v>3519.593097512766</v>
+        <v>3086.619642344901</v>
       </c>
       <c r="P44" t="n">
-        <v>3914.367463869944</v>
+        <v>3799.974729791847</v>
       </c>
       <c r="Q44" t="n">
-        <v>4162.653825625626</v>
+        <v>4105.190361752581</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983638</v>
+        <v>4229.266683983637</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355224</v>
+        <v>4154.829971355222</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583937</v>
+        <v>3984.706179583935</v>
       </c>
       <c r="U44" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702263</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.906027777559</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.29422536097</v>
       </c>
       <c r="Y44" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="45">
@@ -7716,16 +7716,16 @@
         <v>330.4576198076492</v>
       </c>
       <c r="G45" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402672</v>
       </c>
       <c r="H45" t="n">
         <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967273</v>
       </c>
       <c r="J45" t="n">
-        <v>178.2626031702901</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K45" t="n">
         <v>416.5268021506373</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.1716476727529</v>
+        <v>582.2589880867722</v>
       </c>
       <c r="C46" t="n">
-        <v>635.0894205893369</v>
+        <v>449.1767610033561</v>
       </c>
       <c r="D46" t="n">
-        <v>520.8267370214918</v>
+        <v>449.1767610033561</v>
       </c>
       <c r="E46" t="n">
-        <v>408.7675992835893</v>
+        <v>449.1767610033561</v>
       </c>
       <c r="F46" t="n">
-        <v>297.7316076301697</v>
+        <v>388.2691667352781</v>
       </c>
       <c r="G46" t="n">
-        <v>165.8827268493794</v>
+        <v>256.4202859544879</v>
       </c>
       <c r="H46" t="n">
-        <v>84.58533367967277</v>
+        <v>146.0570550168365</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967273</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497934</v>
+        <v>164.8484282497938</v>
       </c>
       <c r="K46" t="n">
-        <v>403.976073321855</v>
+        <v>403.9760733218556</v>
       </c>
       <c r="L46" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935372</v>
       </c>
       <c r="M46" t="n">
-        <v>1134.973841616271</v>
+        <v>1134.973841616272</v>
       </c>
       <c r="N46" t="n">
-        <v>1511.522680445321</v>
+        <v>1511.522680445322</v>
       </c>
       <c r="O46" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488921</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045766</v>
       </c>
       <c r="Q46" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321466</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923485</v>
       </c>
       <c r="S46" t="n">
-        <v>2016.6830325948</v>
+        <v>2016.683032594802</v>
       </c>
       <c r="T46" t="n">
-        <v>2016.6830325948</v>
+        <v>1830.770373008819</v>
       </c>
       <c r="U46" t="n">
-        <v>1763.434121564934</v>
+        <v>1577.521461978953</v>
       </c>
       <c r="V46" t="n">
-        <v>1544.603589203538</v>
+        <v>1358.690929617557</v>
       </c>
       <c r="W46" t="n">
-        <v>1291.040375011068</v>
+        <v>1105.127715425087</v>
       </c>
       <c r="X46" t="n">
-        <v>1098.904779957541</v>
+        <v>912.9921203715606</v>
       </c>
       <c r="Y46" t="n">
-        <v>913.9661566585019</v>
+        <v>728.0534970725211</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>66.68354319982487</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>196.0806254639763</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>29.61882225792237</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>315.1679217109346</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,25 +9164,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>135.6385654278989</v>
       </c>
       <c r="L17" t="n">
-        <v>176.2173930448424</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9401,25 +9401,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>288.0478149561023</v>
+        <v>13.98823883547345</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>395.1460246798098</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>248.8400772687159</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.9990175570123</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,16 +10118,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>216.9877583263337</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>161.8544041422902</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>361.281923749209</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>125.6062409992929</v>
+        <v>155.0730521538004</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>294.7028561713639</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>13.77581908803248</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,19 +11066,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>29.74373462032486</v>
+        <v>30.35515918955548</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11306,19 +11306,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>57.50431333843594</v>
       </c>
       <c r="R44" t="n">
-        <v>7.67251697091875</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>35.10510839313403</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590284</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143209</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983823</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>16.14213605696621</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>27.18592853412301</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590284</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983822</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.0409798470832</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143209</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983823</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>191.8244042435762</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>18.96245366221398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>45.48143183721749</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590284</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143209</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983822</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004746</v>
       </c>
       <c r="S22" t="n">
-        <v>24.119648252297</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590284</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143209</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983823</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>105.0742887270161</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>16.14213605696574</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>27.80005112138221</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>99.68725319123179</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>162.5760987035354</v>
+        <v>11.99242406163676</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>52.51544363394689</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>190.8114896199359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>131.7514048125821</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>32.00867995471451</v>
+        <v>54.50048613901738</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368855</v>
+        <v>109.9256317368853</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109.2595986282748</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>131.7514048125821</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321666</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>33.22969279431</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>109.9256317368853</v>
       </c>
       <c r="G40" t="n">
-        <v>28.81425495943383</v>
+        <v>130.5303919729823</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>33.89572590292079</v>
       </c>
       <c r="D43" t="n">
-        <v>32.21677817067625</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729823</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>113.1200567321664</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>110.9385463605232</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>49.62711341148807</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>28.77517939026541</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379232</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>184.0535329901234</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>722662.0524754364</v>
+        <v>722662.0524754362</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>722662.0524754364</v>
+        <v>722662.0524754365</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>722662.0524754365</v>
+        <v>722662.0524754362</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>722662.0524754364</v>
+        <v>722662.0524754365</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>722662.0524754364</v>
+        <v>722662.0524754362</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>722662.0524754364</v>
+        <v>722662.0524754365</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731784.6652647805</v>
+        <v>731784.6652647806</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731784.6652647806</v>
+        <v>731784.6652647807</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731784.6652647806</v>
+        <v>731784.6652647807</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731784.6652647806</v>
+        <v>731784.6652647807</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312475</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
         <v>694893.1270522207</v>
       </c>
       <c r="F2" t="n">
-        <v>694893.1270522207</v>
+        <v>694893.127052221</v>
       </c>
       <c r="G2" t="n">
         <v>694893.1270522206</v>
@@ -26332,28 +26332,28 @@
         <v>694893.1270522206</v>
       </c>
       <c r="I2" t="n">
-        <v>694893.1270522207</v>
+        <v>694893.1270522209</v>
       </c>
       <c r="J2" t="n">
+        <v>694893.1270522209</v>
+      </c>
+      <c r="K2" t="n">
         <v>694893.127052221</v>
       </c>
-      <c r="K2" t="n">
-        <v>694893.1270522207</v>
-      </c>
       <c r="L2" t="n">
-        <v>694893.127052221</v>
+        <v>694893.1270522206</v>
       </c>
       <c r="M2" t="n">
-        <v>712664.1485846603</v>
+        <v>712664.14858466</v>
       </c>
       <c r="N2" t="n">
-        <v>712664.1485846601</v>
+        <v>712664.1485846604</v>
       </c>
       <c r="O2" t="n">
-        <v>712664.1485846603</v>
+        <v>712664.1485846599</v>
       </c>
       <c r="P2" t="n">
-        <v>712664.1485846601</v>
+        <v>712664.1485846599</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394266</v>
+        <v>507203.1428394271</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418063</v>
+        <v>78665.28217418012</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410733</v>
+        <v>157829.4001410735</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022173</v>
+        <v>18289.94367022161</v>
       </c>
       <c r="L3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>123848.7911881749</v>
+        <v>123848.7911881751</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232017.7717547199</v>
+        <v>232017.7717547198</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289557</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289567</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289582</v>
+        <v>28561.83935289557</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.8393528956</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289571</v>
       </c>
       <c r="J4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289573</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
-        <v>55718.30868501851</v>
+        <v>55718.30868501867</v>
       </c>
       <c r="N4" t="n">
-        <v>55718.30868501849</v>
+        <v>55718.30868501867</v>
       </c>
       <c r="O4" t="n">
-        <v>55718.30868501851</v>
+        <v>55718.30868501867</v>
       </c>
       <c r="P4" t="n">
-        <v>55718.30868501854</v>
+        <v>55718.30868501867</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133431</v>
+        <v>77204.68871133434</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.5182537137</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371369</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371369</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371369</v>
+      </c>
+      <c r="I5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26500,16 +26500,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123675</v>
       </c>
       <c r="N5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123677</v>
       </c>
       <c r="O5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123677</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.04982123677</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98014.05467423314</v>
+        <v>-98014.05467423372</v>
       </c>
       <c r="C6" t="n">
-        <v>346964.7729306243</v>
+        <v>346964.7729306251</v>
       </c>
       <c r="D6" t="n">
-        <v>425630.0551048054</v>
+        <v>425630.055104805</v>
       </c>
       <c r="E6" t="n">
-        <v>-157429.6445477952</v>
+        <v>-157496.8400380211</v>
       </c>
       <c r="F6" t="n">
-        <v>569947.7694456114</v>
+        <v>569880.5739553858</v>
       </c>
       <c r="G6" t="n">
-        <v>569947.7694456112</v>
+        <v>569880.5739553855</v>
       </c>
       <c r="H6" t="n">
-        <v>569947.7694456113</v>
+        <v>569880.5739553855</v>
       </c>
       <c r="I6" t="n">
-        <v>569947.7694456114</v>
+        <v>569880.5739553859</v>
       </c>
       <c r="J6" t="n">
-        <v>412118.3693045382</v>
+        <v>412051.1738143121</v>
       </c>
       <c r="K6" t="n">
-        <v>551657.8257753897</v>
+        <v>551590.6302851642</v>
       </c>
       <c r="L6" t="n">
-        <v>569947.7694456116</v>
+        <v>569880.5739553855</v>
       </c>
       <c r="M6" t="n">
-        <v>442070.99889023</v>
+        <v>442054.5777472391</v>
       </c>
       <c r="N6" t="n">
-        <v>565919.7900784049</v>
+        <v>565903.3689354147</v>
       </c>
       <c r="O6" t="n">
-        <v>565919.7900784049</v>
+        <v>565903.3689354142</v>
       </c>
       <c r="P6" t="n">
-        <v>565919.7900784048</v>
+        <v>565903.3689354142</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688978</v>
+        <v>316.5685789688982</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.221935687703</v>
+        <v>603.2219356877034</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26796,16 +26796,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="F4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="G4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="H4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1057.31667099591</v>
+        <v>1057.316670995909</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.31667099591</v>
+        <v>1057.316670995909</v>
       </c>
       <c r="O4" t="n">
-        <v>1057.31667099591</v>
+        <v>1057.316670995909</v>
       </c>
       <c r="P4" t="n">
-        <v>1057.31667099591</v>
+        <v>1057.316670995909</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.4954162860457</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688978</v>
+        <v>316.5685789688982</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818891</v>
+        <v>61.17508524818851</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.221935687703</v>
+        <v>603.2219356877034</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685263</v>
+        <v>71.06533706685218</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503753</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>603.221935687703</v>
+        <v>603.2219356877034</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685263</v>
+        <v>71.06533706685218</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.029398241354</v>
+        <v>383.0293982413541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.221935687703</v>
+        <v>603.2219356877034</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685263</v>
+        <v>71.06533706685218</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503753</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>107.041671989944</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>188.3103925113147</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841482</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.4125322208644</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.19340392280026</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>63.38328430557701</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>65.95263903154856</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>57.88099638015517</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
-        <v>39.47163099791162</v>
+        <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
         <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255609</v>
+        <v>52.99928112255604</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739082</v>
+        <v>38.36018782739076</v>
       </c>
       <c r="R4" t="n">
-        <v>151.625388236511</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>214.068041219212</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5064544755703</v>
+        <v>25.88630449671533</v>
       </c>
       <c r="U4" t="n">
         <v>286.2878914634775</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>56.92141288872227</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>96.72459696620069</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>92.89577304195178</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>118.3328055020462</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>71.34946771876844</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>158.0700566698772</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>46.76331713866857</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-8.672048890566677e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28141,22 +28141,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-1.082878842450536e-13</v>
       </c>
       <c r="I17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-1.961097950697877e-12</v>
       </c>
       <c r="T17" t="n">
-        <v>8.997529158509207e-13</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="U17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="X17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-1.300664570240161e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28816,10 +28816,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.082878842450536e-13</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-12</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-1.300664570240161e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604594</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604538</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604573</v>
+        <v>35.49541628604592</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604592</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392553</v>
+        <v>1.272637503392555</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161899</v>
+        <v>13.033398831619</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954144</v>
+        <v>49.0633573495415</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035638</v>
+        <v>108.0135173035639</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221706</v>
+        <v>161.8842628221708</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166205</v>
+        <v>200.8317428166207</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175778</v>
+        <v>223.4640100175781</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240919</v>
+        <v>227.0798913240922</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497322</v>
+        <v>214.4251021497325</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847285</v>
+        <v>183.0068637847287</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944826</v>
+        <v>137.4305331944828</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248253</v>
+        <v>79.94231557248263</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855783</v>
+        <v>29.00022710855787</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100904</v>
+        <v>5.57097067110091</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714042</v>
+        <v>0.1018110002714043</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859311</v>
+        <v>0.680921094385932</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674651</v>
+        <v>6.57626425367466</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986649</v>
+        <v>23.44399381986652</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933046</v>
+        <v>64.33211093933053</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631878</v>
+        <v>109.953824263188</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665593</v>
+        <v>147.8464858665595</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380493</v>
+        <v>172.5298755380495</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648743</v>
+        <v>177.0962279648745</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313754</v>
+        <v>162.0084500313756</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674328</v>
+        <v>130.0260640674329</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915851</v>
+        <v>86.91898039915861</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248792</v>
+        <v>42.27683777248797</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861586</v>
+        <v>12.64781067861588</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739782</v>
+        <v>2.744589849739786</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012707</v>
+        <v>0.04479744042012712</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111271</v>
+        <v>0.5708613719111278</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173479</v>
+        <v>5.075476561173486</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801826</v>
+        <v>17.16735834801829</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411668</v>
+        <v>40.35989899411673</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840184</v>
+        <v>66.32371211840193</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667794</v>
+        <v>84.87151705667806</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148694</v>
+        <v>89.48511487148706</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890917</v>
+        <v>87.35735884890929</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009522007</v>
+        <v>80.68866009522017</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823302</v>
+        <v>69.04308810823311</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430356</v>
+        <v>47.80185542430362</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065849</v>
+        <v>25.66800314065852</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760275</v>
+        <v>9.948556817760288</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711179</v>
+        <v>2.439134952711182</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333424</v>
+        <v>0.03113789301333428</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32786,10 +32786,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33269,10 +33269,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895127</v>
+        <v>96.06422794895141</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483548</v>
+        <v>265.939824348355</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970837</v>
+        <v>382.7265423970839</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831375</v>
+        <v>442.6313102831379</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394851</v>
+        <v>435.0137521394854</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907908</v>
+        <v>365.1270719907911</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009416</v>
+        <v>273.5725762009419</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799378</v>
+        <v>127.439833979938</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.58551961307261</v>
+        <v>63.58551961307268</v>
       </c>
       <c r="K3" t="n">
-        <v>38.79592848865371</v>
+        <v>236.5776223014076</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901443</v>
+        <v>380.1324513901445</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660309</v>
+        <v>496.100905366031</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250945</v>
+        <v>525.0968902250947</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636605</v>
+        <v>215.4928310509075</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930397</v>
+        <v>314.5144252930398</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.0144940489861</v>
+        <v>157.0144940489862</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251899</v>
+        <v>44.05422029251908</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169941</v>
+        <v>112.4615423169942</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333275</v>
+        <v>129.0689918333276</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281378</v>
+        <v>131.4895312281379</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092597</v>
+        <v>105.2737880092598</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312651</v>
+        <v>66.32164737312659</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502547</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597718</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306612</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35577,16 +35577,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789356</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>867.4697571238461</v>
       </c>
       <c r="O14" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130661</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789353</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>472.8298519832994</v>
       </c>
       <c r="L17" t="n">
-        <v>631.8075074371745</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130661</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789353</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>625.2391015115028</v>
+        <v>351.1795253908739</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130661</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789353</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>947.4478600927213</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306626</v>
+        <v>45.5784166130661</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789353</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,10 +36607,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>647.6020634880878</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>323.7860185257249</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
@@ -36838,16 +36838,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>725.0407592145528</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36917,10 +36917,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>352.6414051110027</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>900.2030395794358</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>462.7975275546934</v>
+        <v>492.2643387092009</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37324,10 +37324,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911216</v>
       </c>
       <c r="K37" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303655</v>
       </c>
       <c r="L37" t="n">
-        <v>355.2527884562439</v>
+        <v>355.252788456244</v>
       </c>
       <c r="M37" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795298</v>
       </c>
       <c r="N37" t="n">
-        <v>380.3523624535858</v>
+        <v>380.352362453586</v>
       </c>
       <c r="O37" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086857</v>
       </c>
       <c r="P37" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311564</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239396</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>750.292970563696</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37561,7 +37561,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>264.570123891752</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597715</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911195</v>
+        <v>81.07383289911215</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303655</v>
       </c>
       <c r="L40" t="n">
-        <v>355.2527884562438</v>
+        <v>355.252788456244</v>
       </c>
       <c r="M40" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N40" t="n">
-        <v>380.3523624535858</v>
+        <v>380.352362453586</v>
       </c>
       <c r="O40" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086857</v>
       </c>
       <c r="P40" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239396</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37786,19 +37786,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>568.6648504505516</v>
+        <v>569.2762750197822</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597715</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911195</v>
+        <v>81.07383289911215</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303655</v>
       </c>
       <c r="L43" t="n">
-        <v>355.2527884562438</v>
+        <v>355.252788456244</v>
       </c>
       <c r="M43" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N43" t="n">
-        <v>380.3523624535858</v>
+        <v>380.352362453586</v>
       </c>
       <c r="O43" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086857</v>
       </c>
       <c r="P43" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239396</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,19 +38026,19 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>308.2986181421554</v>
       </c>
       <c r="R44" t="n">
-        <v>67.28571551314353</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911199</v>
+        <v>81.07383289911215</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303655</v>
       </c>
       <c r="L46" t="n">
-        <v>355.2527884562439</v>
+        <v>355.252788456244</v>
       </c>
       <c r="M46" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N46" t="n">
-        <v>380.3523624535858</v>
+        <v>380.352362453586</v>
       </c>
       <c r="O46" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086857</v>
       </c>
       <c r="P46" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239396</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
